--- a/network/distance_above_25_meters.xlsx
+++ b/network/distance_above_25_meters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,137 +436,470 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>도장3_IO</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>도장7_IO</t>
+          <t>도장8공장_IO</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>의장쉘터</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>도장3공장_IO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>도장7공장_IO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2도크쉘터</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3도크쉘터</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3도크</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>도장1공장_IO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>대조립1_OUT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>선각_OUT</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>뉴판넬PE장쉘터</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>대조립부속1동쉘터</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>선각공장_OUT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>대조립1공장_OUT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>도장3_IO</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>99999999999</v>
+        <v>329.3576438523629</v>
       </c>
       <c r="D2" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99999999999</v>
-      </c>
+        <v>487.4321054332061</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>도장7_IO</t>
+          <t>도장8공장_IO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99999999999</v>
+        <v>329.3576438523629</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>183.7329745792709</v>
-      </c>
-      <c r="E3" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99999999999</v>
-      </c>
+        <v>158.0744615808432</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>도장1공장_IO</t>
+          <t>의장쉘터</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99999999999</v>
+        <v>487.4321054332062</v>
       </c>
       <c r="C4" t="n">
-        <v>183.7329745792709</v>
+        <v>158.0744615808432</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99999999999</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>대조립1_OUT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>99999999999</v>
-      </c>
+          <t>도장3공장_IO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5456114272073</v>
-      </c>
+        <v>338.0391221498985</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>502.9953230740579</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>선각_OUT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>99999999999</v>
-      </c>
+          <t>도장7공장_IO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>119.5456114272073</v>
+        <v>338.0391221498985</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>164.9562009241594</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2도크쉘터</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>177.9217690229775</v>
+      </c>
+      <c r="I7" t="n">
+        <v>188.8048498332857</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>3도크쉘터</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>177.9217690229775</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.88308081030824</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>3도크</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>188.8048498332857</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.88308081030824</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>도장1공장_IO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>502.9953230740579</v>
+      </c>
+      <c r="F10" t="n">
+        <v>164.9562009241594</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>뉴판넬PE장쉘터</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>93.01635210260316</v>
+      </c>
+      <c r="M11" t="n">
+        <v>113.2876725574155</v>
+      </c>
+      <c r="N11" t="n">
+        <v>143.7665838742845</v>
+      </c>
+      <c r="O11" t="n">
+        <v>222.9940754841184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>대조립부속1동쉘터</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>93.01635210260316</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.27132045481231</v>
+      </c>
+      <c r="N12" t="n">
+        <v>50.75023177168137</v>
+      </c>
+      <c r="O12" t="n">
+        <v>129.9777233815152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>선각공장_OUT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>113.2876725574155</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.27132045481231</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>30.47891131686906</v>
+      </c>
+      <c r="O13" t="n">
+        <v>109.7064029267029</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>143.7665838742845</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50.75023177168137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30.47891131686906</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>79.22749160983385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>대조립1공장_OUT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>222.9940754841184</v>
+      </c>
+      <c r="L15" t="n">
+        <v>129.9777233815152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>109.7064029267029</v>
+      </c>
+      <c r="N15" t="n">
+        <v>79.22749160983385</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
